--- a/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W5_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.1)/type1/pd_results_W5_H50_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5531914893617021</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.5</v>
-      </c>
+        <v>0.552870090634441</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9945355191256831</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006756756756756757</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0.552870090634441</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7109375</v>
+        <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4924471299093656</v>
+        <v>0.4833836858006043</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1232942804396407</v>
+        <v>0.1160263626445988</v>
       </c>
       <c r="J2" t="n">
-        <v>1580.63284913072</v>
+        <v>1509.804578692585</v>
       </c>
       <c r="K2" t="n">
-        <v>3218559.628798127</v>
+        <v>2984575.460222605</v>
       </c>
       <c r="L2" t="n">
-        <v>1794.034455855887</v>
+        <v>1727.592388331983</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3983114839994599</v>
+        <v>0.4420532826283075</v>
       </c>
     </row>
   </sheetData>
